--- a/biology/Virologie/DRACO_(thérapeutique)/DRACO_(thérapeutique).xlsx
+++ b/biology/Virologie/DRACO_(thérapeutique)/DRACO_(thérapeutique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DRACO_(th%C3%A9rapeutique)</t>
+          <t>DRACO_(thérapeutique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DRACO ("Double-stranded RNA(ARN bicaténaire) Activated Caspase Oligomerizer") est une famille de molécules antivirales conçues et expérimentées au M.I.T. Massachusetts Institute of Technology par Todd H. Rider et ses collaborateurs.   DRACO est décrit comme étant actif vis-à-vis d'un grand nombre de virus pathogènes incluant des Flavivirus (virus de la dengue), Bunyavirus et Arenavirus (fièvres hémorragiques), Influenzavirus A sous-type H1N1 (grippe pandémique) et Rhinovirus (virus du rhume).  DRACO déclenche rapidement l'apoptose des cellules infectées avant la maturation du virus stoppant sa propagation sans affecter les cellules saines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DRACO ("Double-stranded RNA(ARN bicaténaire) Activated Caspase Oligomerizer") est une famille de molécules antivirales conçues et expérimentées au M.I.T. Massachusetts Institute of Technology par Todd H. Rider et ses collaborateurs.   DRACO est décrit comme étant actif vis-à-vis d'un grand nombre de virus pathogènes incluant des Flavivirus (virus de la dengue), Bunyavirus et Arenavirus (fièvres hémorragiques), Influenzavirus A sous-type H1N1 (grippe pandémique) et Rhinovirus (virus du rhume).  DRACO déclenche rapidement l'apoptose des cellules infectées avant la maturation du virus stoppant sa propagation sans affecter les cellules saines.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRACO_(th%C3%A9rapeutique)</t>
+          <t>DRACO_(thérapeutique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les DRACOs sont des molécules chimères associant deux constituants appartenant à deux processus naturels de défense de l'organisme contre les infections virales :
 une phosphokinase appartenant au domaine de l'immunité innée, induite après la production d'interféron si des ARN bicaténaires d'origine virale (de plus d'une vingtaine de paires de bases) sont détectés dans le cytoplasme cellulaire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DRACO_(th%C3%A9rapeutique)</t>
+          <t>DRACO_(thérapeutique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">DRACO ne présente aucune toxicité sur diverses lignées cellulaires provenant de la souris, du singe et de l'homme.
 Dès 10 minutes de contact entre des cellules HeLa et DRACO, ce dernier peut être détecté dans le cytoplasme et y persister plus de sept jours après transfert des cellules dans un milieu sans DRACO.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DRACO_(th%C3%A9rapeutique)</t>
+          <t>DRACO_(thérapeutique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Activité thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">In vitro DRACO a montré son pouvoir protecteur sur des cultures cellulaires infectées par des virus à ARN mono ou bicaténaire, nus ou enveloppés, se répliquant dans le cytoplasme ou dans le noyau.
-L'administration de DRACO, jusqu'à trois jours après inoculation intra-nasale de virus de la grippe A H1N1, protège des souris BALB/c quand un groupe de souris non traité a un taux de mortalité de 80 %[1].
+L'administration de DRACO, jusqu'à trois jours après inoculation intra-nasale de virus de la grippe A H1N1, protège des souris BALB/c quand un groupe de souris non traité a un taux de mortalité de 80 %.
 </t>
         </is>
       </c>
